--- a/ggma_Business Reference Model.xlsx
+++ b/ggma_Business Reference Model.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="9675"/>
+    <workbookView xWindow="630" yWindow="585" windowWidth="24015" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="2017 1차" sheetId="1" r:id="rId1"/>
@@ -2998,7 +2998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="104">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -4247,6 +4247,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4259,7 +4272,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5131,6 +5144,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="104" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="104" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
@@ -5442,17 +5461,17 @@
   </sheetPr>
   <dimension ref="A1:V1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="120" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="117" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="122" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="73.140625" style="115" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="66.28515625" style="122" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="115" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="64.140625" style="113" customWidth="1"/>
     <col min="6" max="6" width="63.42578125" style="165" customWidth="1"/>
     <col min="7" max="7" width="61" style="125" customWidth="1"/>
@@ -6910,7 +6929,7 @@
       <c r="A47" s="282"/>
       <c r="B47" s="317"/>
       <c r="C47" s="147"/>
-      <c r="D47" s="215" t="s">
+      <c r="D47" s="333" t="s">
         <v>188</v>
       </c>
       <c r="E47" s="322" t="s">
@@ -7090,7 +7109,7 @@
       <c r="A53" s="285"/>
       <c r="B53" s="318"/>
       <c r="C53" s="319"/>
-      <c r="D53" s="219" t="s">
+      <c r="D53" s="334" t="s">
         <v>215</v>
       </c>
       <c r="E53" s="328" t="s">

--- a/ggma_Business Reference Model.xlsx
+++ b/ggma_Business Reference Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="585" windowWidth="24015" windowHeight="10830"/>
+    <workbookView xWindow="630" yWindow="585" windowWidth="24015" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 1차" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="323">
   <si>
     <t>(정책목표)
 본부 단위 업무기능</t>
@@ -2353,10 +2353,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>대여</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>연구 및 자문</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2386,6 +2382,23 @@
   </si>
   <si>
     <t>*경기기록아카이브2017로이동</t>
+  </si>
+  <si>
+    <t>답사단</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크숍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>31개시군촬영</t>
+  </si>
+  <si>
+    <t>8개주제촬영</t>
+  </si>
+  <si>
+    <t>경기도주제작품</t>
   </si>
 </sst>
 </file>
@@ -2604,7 +2617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2728,6 +2741,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3968,7 +3987,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4760,21 +4779,6 @@
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4810,6 +4814,24 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5127,17 +5149,17 @@
   </sheetPr>
   <dimension ref="A1:V1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="92" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="287" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="288" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="73.140625" style="289" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="66.28515625" style="288" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="289" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="64.140625" style="290" customWidth="1"/>
     <col min="6" max="6" width="63.42578125" style="175" customWidth="1"/>
     <col min="7" max="7" width="61" style="291" customWidth="1"/>
@@ -5749,20 +5771,22 @@
       <c r="A20" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="300" t="s">
+      <c r="B20" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="301" t="s">
+      <c r="C20" s="296" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="302" t="s">
+      <c r="D20" s="297" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="303" t="s">
+      <c r="E20" s="298" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="304"/>
-      <c r="G20" s="305"/>
+      <c r="F20" s="299" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="300"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -5781,16 +5805,18 @@
     </row>
     <row r="21" spans="1:22" ht="41.25" thickBot="1">
       <c r="A21" s="100"/>
-      <c r="B21" s="306"/>
-      <c r="C21" s="307"/>
-      <c r="D21" s="308" t="s">
+      <c r="B21" s="301"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="303" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="309" t="s">
+      <c r="E21" s="304" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="310"/>
-      <c r="G21" s="311"/>
+      <c r="F21" s="305" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="306"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -6105,20 +6131,20 @@
       <c r="A31" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="295" t="s">
+      <c r="B31" s="307" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="296" t="s">
+      <c r="C31" s="308" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="297" t="s">
+      <c r="D31" s="309" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="298" t="s">
+      <c r="E31" s="310" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="299"/>
-      <c r="G31" s="123"/>
+      <c r="F31" s="311"/>
+      <c r="G31" s="312"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -6232,7 +6258,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C35" s="146" t="s">
         <v>131</v>
@@ -6804,7 +6830,7 @@
         <v>205</v>
       </c>
       <c r="F53" s="258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G53" s="126"/>
       <c r="H53" s="1"/>
@@ -6834,7 +6860,7 @@
         <v>172</v>
       </c>
       <c r="F54" s="258" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G54" s="126"/>
       <c r="H54" s="1"/>
@@ -6864,7 +6890,7 @@
         <v>173</v>
       </c>
       <c r="F55" s="258" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G55" s="126"/>
       <c r="H55" s="1"/>
@@ -6894,7 +6920,7 @@
         <v>174</v>
       </c>
       <c r="F56" s="274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G56" s="141"/>
       <c r="H56" s="1"/>
@@ -6926,8 +6952,8 @@
       <c r="D57" s="234" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="283">
-        <v>31</v>
+      <c r="E57" s="283" t="s">
+        <v>320</v>
       </c>
       <c r="F57" s="258"/>
       <c r="G57" s="126"/>
@@ -6950,14 +6976,14 @@
     <row r="58" spans="1:22">
       <c r="A58" s="102"/>
       <c r="B58" s="121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C58" s="161"/>
       <c r="D58" s="234" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="284">
-        <v>8</v>
+      <c r="E58" s="284" t="s">
+        <v>321</v>
       </c>
       <c r="F58" s="258"/>
       <c r="G58" s="126"/>
@@ -6973,20 +6999,20 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="102"/>
-      <c r="B59" s="121" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="161"/>
-      <c r="D59" s="234" t="s">
+    <row r="59" spans="1:22" ht="21" thickBot="1">
+      <c r="A59" s="110"/>
+      <c r="B59" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="162"/>
+      <c r="D59" s="285" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="284" t="s">
-        <v>310</v>
-      </c>
-      <c r="F59" s="258"/>
-      <c r="G59" s="126"/>
+      <c r="E59" s="286" t="s">
+        <v>322</v>
+      </c>
+      <c r="F59" s="274"/>
+      <c r="G59" s="141"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -7020,7 +7046,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="294" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B61" s="174"/>
       <c r="C61" s="177"/>
@@ -29700,11 +29726,11 @@
   </sheetPr>
   <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -32552,7 +32578,7 @@
     </row>
     <row r="88" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="293" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1"/>

--- a/ggma_Business Reference Model.xlsx
+++ b/ggma_Business Reference Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="645" windowWidth="24015" windowHeight="10770"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="327">
   <si>
     <t>(정책목표)
 본부 단위 업무기능</t>
@@ -2477,11 +2477,15 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>분리필요?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="30">
     <font>
       <sz val="10"/>
@@ -3973,7 +3977,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4666,6 +4670,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
@@ -4766,7 +4773,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4801,7 +4807,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4977,7 +4982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4985,8 +4990,8 @@
   <dimension ref="A1:V1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" outlineLevelCol="1"/>
@@ -6382,7 +6387,9 @@
       <c r="F44" s="261" t="s">
         <v>226</v>
       </c>
-      <c r="G44" s="92"/>
+      <c r="G44" s="262" t="s">
+        <v>326</v>
+      </c>
       <c r="H44" s="151"/>
       <c r="I44" s="151"/>
       <c r="J44" s="151"/>
@@ -28618,7 +28625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -28626,10 +28633,10 @@
   <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>

--- a/ggma_Business Reference Model.xlsx
+++ b/ggma_Business Reference Model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="329">
   <si>
     <t>(정책목표)
 본부 단위 업무기능</t>
@@ -867,10 +867,6 @@
   </si>
   <si>
     <t>공중촬영</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 분석</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2479,6 +2475,17 @@
   </si>
   <si>
     <t>분리필요?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도민의견분석</t>
+  </si>
+  <si>
+    <t>도민의견분석</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도민의견분석</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3977,7 +3984,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4673,6 +4680,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
@@ -4989,9 +4999,9 @@
   </sheetPr>
   <dimension ref="A1:V1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" outlineLevelCol="1"/>
@@ -5124,10 +5134,10 @@
         <v>233</v>
       </c>
       <c r="E4" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="246" t="s">
         <v>279</v>
-      </c>
-      <c r="F4" s="246" t="s">
-        <v>280</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="151"/>
@@ -5152,7 +5162,7 @@
       <c r="C5" s="137"/>
       <c r="D5" s="164"/>
       <c r="E5" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" s="247" t="s">
         <v>234</v>
@@ -5209,13 +5219,13 @@
       <c r="B7" s="136"/>
       <c r="C7" s="137"/>
       <c r="D7" s="164" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>237</v>
+        <v>327</v>
+      </c>
+      <c r="E7" s="263" t="s">
+        <v>328</v>
       </c>
       <c r="F7" s="248" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="G7" s="91"/>
       <c r="H7" s="151"/>
@@ -5245,13 +5255,13 @@
         <v>45</v>
       </c>
       <c r="D8" s="167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="249" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="249" t="s">
-        <v>283</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="151"/>
@@ -5275,13 +5285,13 @@
       <c r="B9" s="136"/>
       <c r="C9" s="137"/>
       <c r="D9" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="250" t="s">
         <v>239</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="250" t="s">
-        <v>240</v>
       </c>
       <c r="G9" s="103"/>
       <c r="H9" s="151"/>
@@ -5305,13 +5315,13 @@
       <c r="B10" s="136"/>
       <c r="C10" s="137"/>
       <c r="D10" s="168" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="104" t="s">
-        <v>242</v>
-      </c>
       <c r="F10" s="251" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G10" s="103"/>
       <c r="H10" s="151"/>
@@ -5336,7 +5346,7 @@
       <c r="C11" s="142"/>
       <c r="D11" s="169"/>
       <c r="E11" s="105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="252"/>
       <c r="G11" s="106"/>
@@ -5367,13 +5377,13 @@
         <v>78</v>
       </c>
       <c r="D12" s="138" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="107" t="s">
-        <v>245</v>
-      </c>
       <c r="F12" s="247" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="151"/>
@@ -5397,16 +5407,16 @@
       <c r="B13" s="136"/>
       <c r="C13" s="137"/>
       <c r="D13" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="108" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="247" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="109" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="247" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="109" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
@@ -5430,13 +5440,13 @@
       <c r="C14" s="137"/>
       <c r="D14" s="138"/>
       <c r="E14" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="246" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="110" t="s">
         <v>289</v>
-      </c>
-      <c r="F14" s="246" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>290</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
@@ -5460,10 +5470,10 @@
       <c r="C15" s="137"/>
       <c r="D15" s="138"/>
       <c r="E15" s="111" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="247" t="s">
         <v>291</v>
-      </c>
-      <c r="F15" s="247" t="s">
-        <v>292</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="151"/>
@@ -5487,13 +5497,13 @@
       <c r="B16" s="171"/>
       <c r="C16" s="172"/>
       <c r="D16" s="173" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="112" t="s">
-        <v>248</v>
-      </c>
       <c r="F16" s="253" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="92"/>
       <c r="H16" s="151"/>
@@ -5517,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="174" t="s">
         <v>127</v>
@@ -5526,10 +5536,10 @@
         <v>128</v>
       </c>
       <c r="E17" s="113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F17" s="248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="151"/>
@@ -5556,10 +5566,10 @@
         <v>130</v>
       </c>
       <c r="E18" s="113" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="248" t="s">
         <v>251</v>
-      </c>
-      <c r="F18" s="248" t="s">
-        <v>252</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="151"/>
@@ -5583,13 +5593,13 @@
       <c r="B19" s="171"/>
       <c r="C19" s="178"/>
       <c r="D19" s="179" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" s="114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F19" s="254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="93"/>
       <c r="H19" s="151"/>
@@ -5619,13 +5629,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="139" t="s">
-        <v>255</v>
-      </c>
       <c r="F20" s="255" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="151"/>
@@ -5649,13 +5659,13 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142"/>
       <c r="D21" s="143" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="144" t="s">
-        <v>257</v>
-      </c>
       <c r="F21" s="256" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G21" s="145"/>
       <c r="H21" s="151"/>
@@ -5685,16 +5695,16 @@
         <v>34</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E22" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="247" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="115" t="s">
         <v>293</v>
-      </c>
-      <c r="F22" s="247" t="s">
-        <v>314</v>
-      </c>
-      <c r="G22" s="115" t="s">
-        <v>294</v>
       </c>
       <c r="H22" s="151"/>
       <c r="I22" s="151"/>
@@ -5717,16 +5727,16 @@
       <c r="B23" s="136"/>
       <c r="C23" s="137"/>
       <c r="D23" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="247" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="109" t="s">
         <v>295</v>
-      </c>
-      <c r="F23" s="247" t="s">
-        <v>313</v>
-      </c>
-      <c r="G23" s="109" t="s">
-        <v>296</v>
       </c>
       <c r="H23" s="151"/>
       <c r="I23" s="151"/>
@@ -5749,16 +5759,16 @@
       <c r="B24" s="136"/>
       <c r="C24" s="176"/>
       <c r="D24" s="180" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E24" s="116" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="247" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="109" t="s">
         <v>297</v>
-      </c>
-      <c r="F24" s="247" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="109" t="s">
-        <v>298</v>
       </c>
       <c r="H24" s="151"/>
       <c r="I24" s="151"/>
@@ -5782,13 +5792,13 @@
       <c r="C25" s="176"/>
       <c r="D25" s="180"/>
       <c r="E25" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="247" t="s">
         <v>299</v>
       </c>
-      <c r="F25" s="247" t="s">
+      <c r="G25" s="109" t="s">
         <v>300</v>
-      </c>
-      <c r="G25" s="109" t="s">
-        <v>301</v>
       </c>
       <c r="H25" s="151"/>
       <c r="I25" s="151"/>
@@ -5812,13 +5822,13 @@
       <c r="C26" s="176"/>
       <c r="D26" s="181"/>
       <c r="E26" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="247" t="s">
         <v>302</v>
       </c>
-      <c r="F26" s="247" t="s">
+      <c r="G26" s="109" t="s">
         <v>303</v>
-      </c>
-      <c r="G26" s="109" t="s">
-        <v>304</v>
       </c>
       <c r="H26" s="151"/>
       <c r="I26" s="151"/>
@@ -5842,13 +5852,13 @@
       <c r="C27" s="176"/>
       <c r="D27" s="180"/>
       <c r="E27" s="116" t="s">
+        <v>304</v>
+      </c>
+      <c r="F27" s="247" t="s">
+        <v>315</v>
+      </c>
+      <c r="G27" s="118" t="s">
         <v>305</v>
-      </c>
-      <c r="F27" s="247" t="s">
-        <v>316</v>
-      </c>
-      <c r="G27" s="118" t="s">
-        <v>306</v>
       </c>
       <c r="H27" s="151"/>
       <c r="I27" s="151"/>
@@ -5871,22 +5881,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="165" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="182" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="183" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E28" s="119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" s="257" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H28" s="151"/>
       <c r="I28" s="151"/>
@@ -5909,16 +5919,16 @@
       <c r="B29" s="136"/>
       <c r="C29" s="176"/>
       <c r="D29" s="180" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E29" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="247" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="109" t="s">
         <v>307</v>
-      </c>
-      <c r="F29" s="247" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="109" t="s">
-        <v>308</v>
       </c>
       <c r="H29" s="151"/>
       <c r="I29" s="151"/>
@@ -5944,13 +5954,13 @@
         <v>44</v>
       </c>
       <c r="E30" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="248" t="s">
         <v>263</v>
       </c>
-      <c r="F30" s="248" t="s">
-        <v>264</v>
-      </c>
       <c r="G30" s="121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H30" s="151"/>
       <c r="I30" s="151"/>
@@ -6019,7 +6029,7 @@
         <v>211</v>
       </c>
       <c r="F32" s="258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G32" s="89"/>
       <c r="H32" s="151"/>
@@ -6099,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="182" t="s">
         <v>131</v>
@@ -6138,10 +6148,10 @@
         <v>216</v>
       </c>
       <c r="E36" s="123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F36" s="247" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="151"/>
@@ -6168,10 +6178,10 @@
         <v>133</v>
       </c>
       <c r="E37" s="113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" s="247" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G37" s="91"/>
       <c r="H37" s="151"/>
@@ -6198,10 +6208,10 @@
         <v>134</v>
       </c>
       <c r="E38" s="124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F38" s="260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G38" s="125"/>
       <c r="H38" s="151"/>
@@ -6264,10 +6274,10 @@
         <v>220</v>
       </c>
       <c r="E40" s="116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G40" s="91"/>
       <c r="H40" s="151"/>
@@ -6388,7 +6398,7 @@
         <v>226</v>
       </c>
       <c r="G44" s="262" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H44" s="151"/>
       <c r="I44" s="151"/>
@@ -6423,7 +6433,7 @@
         <v>227</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G45" s="91"/>
       <c r="H45" s="151"/>
@@ -6489,7 +6499,7 @@
         <v>147</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G47" s="89"/>
       <c r="H47" s="151"/>
@@ -6581,7 +6591,7 @@
         <v>202</v>
       </c>
       <c r="F50" s="132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G50" s="89"/>
       <c r="H50" s="151"/>
@@ -6673,7 +6683,7 @@
         <v>205</v>
       </c>
       <c r="F53" s="127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G53" s="91"/>
       <c r="H53" s="151"/>
@@ -6703,7 +6713,7 @@
         <v>172</v>
       </c>
       <c r="F54" s="127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G54" s="91"/>
       <c r="H54" s="151"/>
@@ -6733,7 +6743,7 @@
         <v>173</v>
       </c>
       <c r="F55" s="127" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G55" s="91"/>
       <c r="H55" s="151"/>
@@ -6763,7 +6773,7 @@
         <v>174</v>
       </c>
       <c r="F56" s="131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" s="93"/>
       <c r="H56" s="151"/>
@@ -6796,7 +6806,7 @@
         <v>195</v>
       </c>
       <c r="E57" s="217" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F57" s="127"/>
       <c r="G57" s="91"/>
@@ -6819,14 +6829,14 @@
     <row r="58" spans="1:22">
       <c r="A58" s="237"/>
       <c r="B58" s="136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="205"/>
       <c r="D58" s="180" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F58" s="127"/>
       <c r="G58" s="91"/>
@@ -6845,14 +6855,14 @@
     <row r="59" spans="1:22" ht="21" thickBot="1">
       <c r="A59" s="241"/>
       <c r="B59" s="171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C59" s="207"/>
       <c r="D59" s="191" t="s">
         <v>197</v>
       </c>
       <c r="E59" s="219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F59" s="131"/>
       <c r="G59" s="93"/>
@@ -6889,7 +6899,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="226" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B61" s="221"/>
       <c r="C61" s="227"/>
@@ -28649,7 +28659,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="30.75" thickBot="1">
       <c r="A1" s="134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>5</v>
@@ -31484,7 +31494,7 @@
     </row>
     <row r="88" spans="1:28" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="135" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="5" customFormat="1" ht="15.75" customHeight="1"/>
